--- a/docs/RocketMQ 表格.xlsx
+++ b/docs/RocketMQ 表格.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
@@ -16,381 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
-  <si>
-    <t>Apache Kafka</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taobao Metaq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分区过多会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>Load</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>升高</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万以上</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>性能极低</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不支持</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、数据落盘后，才可被订阅
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>Consumer Pull</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大间隔时间</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>按照条数与时间刷盘，实时性低</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后台线程实时刷盘</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持，且性能接近异步刷盘</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分区数</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SATA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盘下性能</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务端消息过滤</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>按照时间回溯</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Consumer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订阅实时性</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>异步刷盘实时性</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同步刷盘</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>异步复制</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>由于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>PAGECACHE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作用，以及刷盘方式的不同，性能接近</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>SAS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盘</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>消息的堆积容量</t>
   </si>
@@ -424,146 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>同步双写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持，且性能接近单写一个Broker</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持，并且在服务端支持与或表达式过滤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、数据进入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>Broker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，只要写入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pagecache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，即使没有刷盘，也可以被订阅
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>Consumer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用长轮询方式，实时性同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-      </rPr>
-      <t>Push</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方式一致</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持，支持按照消息ID、消息key查询消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式事务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持（待开发）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -834,6 +320,662 @@
       <t>，
 备机切换后会丢失极少量
 未同步的数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alibaba RocketMQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分区数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分区过多会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升高</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万以上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SATA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘下性能</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性能极低</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>PAGECACHE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用，以及刷盘方式的不同，性能接近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务端消息过滤</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不支持</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持，并且在服务端支持与或表达式过滤</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按照时间回溯</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订阅实时性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、数据落盘后，才可被订阅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consumer Pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大间隔时间</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、数据进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，只要写入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pagecache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，即使没有刷盘，也可以被订阅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用长轮询方式，实时性同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方式一致</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异步刷盘实时性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按照条数与时间刷盘，实时性低</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后台线程实时刷盘，刷盘几乎无延时</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步刷盘</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持，且性能接近异步刷盘</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异步复制</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步双写</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持，且性能接近单写一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broker</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息查询</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持，支持按照消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询消息</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布式事务</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定时消息</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务端消息重试</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单队列并行消费</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1089,7 +1231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,11 +1268,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1138,34 +1286,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1531,10 +1667,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:C12"/>
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1547,131 +1683,164 @@
     <row r="1" spans="1:3" ht="31.5" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
+      <c r="A10" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="12" t="s">
-        <v>32</v>
+      <c r="A11" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>35</v>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1698,10 +1867,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="11" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5">
@@ -1709,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33">
@@ -1720,10 +1889,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33">
@@ -1731,10 +1900,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5">
@@ -1742,10 +1911,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1764,12 +1933,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A3:G6"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23.5" bestFit="1" customWidth="1"/>
@@ -1777,129 +1946,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A1" s="24"/>
-      <c r="B1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="23"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>46</v>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>40</v>
+      <c r="A3" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>41</v>
+      <c r="A4" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="69.95" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>42</v>
+      <c r="A5" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>43</v>
+      <c r="A6" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
